--- a/データ構造.xlsx
+++ b/データ構造.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki-\OneDrive\デスクトップ\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\yuki-\OneDrive\デスクトップ\掲示板\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="75" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="37">
   <si>
     <t>列名</t>
   </si>
@@ -58,99 +58,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>Userテーブル</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>サイズは適当(全テーブル)</t>
-    <rPh sb="4" eb="6">
-      <t>テキトウ</t>
-    </rPh>
-    <rPh sb="7" eb="8">
-      <t>ゼン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>User_ID</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>〇</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>ユーザーのID（主キー）</t>
-    <rPh sb="8" eb="9">
-      <t>シュ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>←ログイン機能は作れたら作る</t>
-    <rPh sb="5" eb="7">
-      <t>キノウ</t>
-    </rPh>
-    <rPh sb="8" eb="9">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="12" eb="13">
-      <t>ツクル</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>User_Name</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>varchar2</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>〇</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザーの名前</t>
-    <rPh sb="5" eb="7">
-      <t>ナマエ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>pass</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>varchar2</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザーのパスワード</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>User_image</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>BLOB?</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>??</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ユーザーのアカウント画像</t>
-    <rPh sb="10" eb="12">
-      <t>ガゾウ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -207,67 +123,15 @@
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>スレッドの投稿者のID（外部キー）</t>
-    <rPh sb="5" eb="8">
-      <t>トウコウシャ</t>
-    </rPh>
-    <rPh sb="12" eb="14">
-      <t>ガイブ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>Thread_Remit</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>varchar2</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
-    <t>レスの上限（チェック条件あり）</t>
-    <rPh sb="3" eb="5">
-      <t>ジョウゲン</t>
-    </rPh>
-    <rPh sb="10" eb="12">
-      <t>ジョウケン</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>←Responseで作った方がいいかも</t>
-    <rPh sb="10" eb="11">
-      <t>ツク</t>
-    </rPh>
-    <rPh sb="13" eb="14">
-      <t>ホウ</t>
-    </rPh>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>ってかいらないかも</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
     <t>Responseテーブル</t>
     <phoneticPr fontId="2"/>
   </si>
   <si>
     <t>Res_User</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>number</t>
-    <phoneticPr fontId="2"/>
-  </si>
-  <si>
-    <t>返信の投稿者のID</t>
-    <rPh sb="0" eb="2">
-      <t>ヘンシン</t>
-    </rPh>
-    <rPh sb="3" eb="6">
-      <t>トウコウシャ</t>
-    </rPh>
     <phoneticPr fontId="2"/>
   </si>
   <si>
@@ -324,6 +188,36 @@
     <t>スレッドのID(主キー)</t>
     <rPh sb="8" eb="9">
       <t>シュ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>varchar2</t>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>返信の投稿者の名前</t>
+    <rPh sb="0" eb="2">
+      <t>ヘンシン</t>
+    </rPh>
+    <rPh sb="3" eb="6">
+      <t>トウコウシャ</t>
+    </rPh>
+    <rPh sb="7" eb="9">
+      <t>ナマエ</t>
+    </rPh>
+    <phoneticPr fontId="2"/>
+  </si>
+  <si>
+    <t>スレッドの投稿者の名前（外部キー）</t>
+    <rPh sb="5" eb="8">
+      <t>トウコウシャ</t>
+    </rPh>
+    <rPh sb="9" eb="11">
+      <t>ナマエ</t>
+    </rPh>
+    <rPh sb="12" eb="14">
+      <t>ガイブ</t>
     </rPh>
     <phoneticPr fontId="2"/>
   </si>
@@ -510,7 +404,7 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="16">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -558,6 +452,12 @@
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="justify" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="right" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -839,10 +739,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:J23"/>
+  <dimension ref="A1:H14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:J23"/>
+      <selection activeCell="L7" sqref="L7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.2" x14ac:dyDescent="0.2"/>
@@ -851,7 +751,7 @@
     <col min="8" max="8" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -877,10 +777,10 @@
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:10" ht="13.8" thickTop="1" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:8" ht="13.8" thickTop="1" x14ac:dyDescent="0.2"/>
+    <row r="3" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="B3" s="4"/>
       <c r="C3" s="4"/>
@@ -888,346 +788,213 @@
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
       <c r="G3" s="4"/>
-      <c r="H3" s="4" t="s">
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="22.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A4" s="5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B4" s="6" t="s">
         <v>9</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10" ht="22.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="B4" s="6" t="s">
-        <v>11</v>
       </c>
       <c r="C4" s="7">
         <v>8</v>
       </c>
       <c r="D4" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="E4" s="6" t="s">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="F4" s="6"/>
       <c r="G4" s="6"/>
       <c r="H4" s="12" t="s">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="5" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A5" s="8" t="s">
         <v>15</v>
       </c>
       <c r="B5" s="9" t="s">
-        <v>16</v>
+        <v>9</v>
       </c>
       <c r="C5" s="10">
-        <v>20</v>
+        <v>100</v>
       </c>
       <c r="D5" s="9" t="s">
-        <v>17</v>
+        <v>10</v>
       </c>
       <c r="E5" s="9"/>
       <c r="F5" s="9"/>
       <c r="G5" s="9"/>
       <c r="H5" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="B6" s="9" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="6" spans="1:10" ht="22.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="8" t="s">
+      <c r="C6" s="10" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="C6" s="10">
-        <v>20</v>
-      </c>
-      <c r="D6" s="9" t="s">
-        <v>17</v>
-      </c>
+      <c r="D6" s="9"/>
       <c r="E6" s="9"/>
       <c r="F6" s="9"/>
       <c r="G6" s="9"/>
       <c r="H6" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="7" spans="1:10" ht="22.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="8" t="s">
-        <v>22</v>
-      </c>
       <c r="B7" s="9" t="s">
-        <v>23</v>
-      </c>
-      <c r="C7" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" s="9"/>
+        <v>13</v>
+      </c>
+      <c r="C7" s="10">
+        <v>8</v>
+      </c>
+      <c r="D7" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="E7" s="9"/>
       <c r="F7" s="9"/>
       <c r="G7" s="9"/>
       <c r="H7" s="9" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.2">
+      <c r="A8" s="16"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="17"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+    </row>
+    <row r="9" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="5" t="s">
+        <v>24</v>
+      </c>
+      <c r="B10" s="6" t="s">
+        <v>34</v>
+      </c>
+      <c r="C10" s="7">
+        <v>8</v>
+      </c>
+      <c r="D10" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="E10" s="6"/>
+      <c r="F10" s="6"/>
+      <c r="G10" s="6"/>
+      <c r="H10" s="13" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="8" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A8" s="8"/>
-      <c r="B8" s="9"/>
-      <c r="C8" s="10"/>
-      <c r="D8" s="9"/>
-      <c r="E8" s="9"/>
-      <c r="F8" s="9"/>
-      <c r="G8" s="9"/>
-      <c r="H8" s="11"/>
-    </row>
-    <row r="10" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A10" s="4" t="s">
+      <c r="B11" s="9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" s="10">
+        <v>8</v>
+      </c>
+      <c r="D11" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
-      <c r="D10" s="4"/>
-      <c r="E10" s="4"/>
-      <c r="F10" s="4"/>
-      <c r="G10" s="4"/>
-      <c r="H10" s="4"/>
-    </row>
-    <row r="11" spans="1:10" ht="22.8" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A11" s="5" t="s">
+      <c r="E11" s="9" t="s">
+        <v>10</v>
+      </c>
+      <c r="F11" s="9"/>
+      <c r="G11" s="9"/>
+      <c r="H11" s="14" t="s">
         <v>27</v>
       </c>
-      <c r="B11" s="6" t="s">
+    </row>
+    <row r="12" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
         <v>28</v>
       </c>
-      <c r="C11" s="7">
-        <v>8</v>
-      </c>
-      <c r="D11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="E11" s="6" t="s">
-        <v>12</v>
-      </c>
-      <c r="F11" s="6"/>
-      <c r="G11" s="6"/>
-      <c r="H11" s="12" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10" ht="22.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>30</v>
-      </c>
       <c r="B12" s="9" t="s">
-        <v>16</v>
-      </c>
-      <c r="C12" s="10">
-        <v>100</v>
-      </c>
-      <c r="D12" s="9" t="s">
-        <v>17</v>
-      </c>
+        <v>18</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="9"/>
       <c r="E12" s="9"/>
       <c r="F12" s="9"/>
       <c r="G12" s="9"/>
-      <c r="H12" s="9" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H12" s="14" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A13" s="8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B13" s="9" t="s">
-        <v>33</v>
-      </c>
-      <c r="C13" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D13" s="9"/>
+        <v>22</v>
+      </c>
+      <c r="C13" s="10">
+        <v>500</v>
+      </c>
+      <c r="D13" s="9" t="s">
+        <v>8</v>
+      </c>
       <c r="E13" s="9"/>
       <c r="F13" s="9"/>
       <c r="G13" s="9"/>
-      <c r="H13" s="9" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10" ht="22.2" thickBot="1" x14ac:dyDescent="0.25">
+      <c r="H13" s="15" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A14" s="8" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="B14" s="9" t="s">
-        <v>28</v>
+        <v>13</v>
       </c>
       <c r="C14" s="10">
         <v>8</v>
       </c>
       <c r="D14" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E14" s="9"/>
+        <v>8</v>
+      </c>
+      <c r="E14" s="9" t="s">
+        <v>10</v>
+      </c>
       <c r="F14" s="9"/>
-      <c r="G14" s="9"/>
-      <c r="H14" s="9" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10" ht="22.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="B15" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C15" s="10">
-        <v>1000</v>
-      </c>
-      <c r="D15" s="9"/>
-      <c r="E15" s="9"/>
-      <c r="F15" s="9"/>
-      <c r="G15" s="9"/>
-      <c r="H15" s="9" t="s">
-        <v>40</v>
-      </c>
-      <c r="J15" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="J16" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
-      <c r="D17" s="4"/>
-      <c r="E17" s="4"/>
-      <c r="F17" s="4"/>
-      <c r="G17" s="4"/>
-      <c r="H17" s="4"/>
-    </row>
-    <row r="18" spans="1:8" ht="14.4" thickTop="1" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="B18" s="6" t="s">
-        <v>45</v>
-      </c>
-      <c r="C18" s="7">
+      <c r="G14" s="9" t="s">
         <v>8</v>
       </c>
-      <c r="D18" s="6" t="s">
-        <v>17</v>
-      </c>
-      <c r="E18" s="6"/>
-      <c r="F18" s="6"/>
-      <c r="G18" s="6"/>
-      <c r="H18" s="13" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="B19" s="9" t="s">
-        <v>11</v>
-      </c>
-      <c r="C19" s="10">
-        <v>8</v>
-      </c>
-      <c r="D19" s="9" t="s">
-        <v>48</v>
-      </c>
-      <c r="E19" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F19" s="9"/>
-      <c r="G19" s="9"/>
-      <c r="H19" s="14" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="20" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="8" t="s">
-        <v>50</v>
-      </c>
-      <c r="B20" s="9" t="s">
+      <c r="H14" s="11" t="s">
         <v>33</v>
       </c>
-      <c r="C20" s="10" t="s">
-        <v>34</v>
-      </c>
-      <c r="D20" s="9"/>
-      <c r="E20" s="9"/>
-      <c r="F20" s="9"/>
-      <c r="G20" s="9"/>
-      <c r="H20" s="14" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="21" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="B21" s="9" t="s">
-        <v>39</v>
-      </c>
-      <c r="C21" s="10">
-        <v>500</v>
-      </c>
-      <c r="D21" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E21" s="9"/>
-      <c r="F21" s="9"/>
-      <c r="G21" s="9"/>
-      <c r="H21" s="15" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="22" spans="1:8" ht="22.2" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="8" t="s">
-        <v>54</v>
-      </c>
-      <c r="B22" s="9" t="s">
-        <v>28</v>
-      </c>
-      <c r="C22" s="10">
-        <v>8</v>
-      </c>
-      <c r="D22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="E22" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9" t="s">
-        <v>12</v>
-      </c>
-      <c r="H22" s="11" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="23" spans="1:8" ht="13.8" thickBot="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="8"/>
-      <c r="B23" s="9"/>
-      <c r="C23" s="10"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="11"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2"/>
